--- a/data/income_statement/2digits/total/29_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/29_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>39079451.31825999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>47355223.98655999</v>
+        <v>47355223.98656</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>62694928.64407</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>62400256.04826</v>
+        <v>62414505.06521</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>68056325.96998999</v>
+        <v>71620147.33680999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>77630945.77425</v>
+        <v>83768720.9179</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>75945829.74481</v>
+        <v>105271389.81143</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>111551268.22681</v>
+        <v>118736988.33478</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>159870223.97405</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>209508139.2580701</v>
+        <v>209524210.0903</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>236878108.02006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>237016430.72833</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>275950731.437</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>19287300.60879</v>
@@ -998,73 +909,83 @@
         <v>36177645.97931001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>35110564.63161</v>
+        <v>35124590.82485</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>37104386.55456</v>
+        <v>40390844.97986</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>42963448.54617</v>
+        <v>48632876.14402001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>45476817.53833</v>
+        <v>61967731.0017</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>61434618.13612001</v>
+        <v>65233694.44645</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>84001962.37639</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>95061048.77980001</v>
+        <v>95073231.20115998</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>100137772.82484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>100238087.01205</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>134715943.503</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>19477599.8522</v>
+        <v>19477599.85219999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>20579035.05962</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>25924989.71664</v>
+        <v>25924989.71664001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>26711211.32155</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>30216434.62766</v>
+        <v>30438533.07705</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>33873900.67474001</v>
+        <v>34276867.54025</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>29763776.04375</v>
+        <v>42101383.09507</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>48670774.21462</v>
+        <v>52014650.55640001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>73751561.96557</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>111386704.90764</v>
+        <v>111390559.07232</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>133969457.36354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>134006845.84292</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>137801361.588</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>314550.85727</v>
@@ -1076,34 +997,39 @@
         <v>592292.94812</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>578480.0951</v>
+        <v>578702.9188099999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>735504.7877699999</v>
+        <v>790769.2798999998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>793596.5533399999</v>
+        <v>858977.2336299999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>705236.1627299999</v>
+        <v>1202275.71466</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1445875.87607</v>
+        <v>1488643.33193</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>2116699.63209</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3060385.57063</v>
+        <v>3060419.81682</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2770877.83168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2771497.87336</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3433426.346</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1542125.05946</v>
@@ -1118,37 +1044,42 @@
         <v>2917611.513</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2429723.514279999</v>
+        <v>2714865.39138</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2867398.86935</v>
+        <v>3288278.33272</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3412820.97983</v>
+        <v>4623949.32559</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4706413.258949999</v>
+        <v>4857006.14411</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>5657663.395070001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6354094.458819999</v>
+        <v>6354113.153549999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6424935.63177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6425714.478210001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7258546.45</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>224699.36214</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>360547.9776200001</v>
+        <v>360547.97762</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>396322.98462</v>
@@ -1157,31 +1088,36 @@
         <v>568064.73288</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>323207.77027</v>
+        <v>328347.95991</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>441645.59953</v>
+        <v>449691.00357</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>408267.50406</v>
+        <v>507641.17419</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>570009.32683</v>
+        <v>588451.97454</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>568159.00822</v>
+        <v>568159.0082200001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1091078.08448</v>
+        <v>1091091.68748</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>894917.80435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>895805.24546</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1000785.566</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1021382.89549</v>
@@ -1196,34 +1132,39 @@
         <v>1788951.95792</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1662396.017260001</v>
+        <v>1736988.06912</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2006869.32259</v>
+        <v>2104406.24907</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2382636.06172</v>
+        <v>3145719.52548</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3073305.69442</v>
+        <v>3190843.92225</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>3806955.83594</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4102259.54942</v>
+        <v>4102263.98035</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4231205.01375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4231207.130999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4859758.618</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>296042.8018300001</v>
+        <v>296042.80183</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>385150.5385</v>
@@ -1232,37 +1173,42 @@
         <v>478498.14005</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>560594.8222000001</v>
+        <v>560594.8221999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>444119.72675</v>
+        <v>649529.36235</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>418883.94723</v>
+        <v>734181.0800799999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>621917.4140500001</v>
+        <v>970588.62592</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1063098.2377</v>
+        <v>1077710.24732</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1282548.55091</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1160756.82492</v>
+        <v>1160757.48572</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1298812.81367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1298702.10175</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1398002.266</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>37537326.25879999</v>
+        <v>37537326.2588</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>45355270.02721</v>
@@ -1271,73 +1217,83 @@
         <v>60174271.85730001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>59482644.53526</v>
+        <v>59496893.55220999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>65626602.45571001</v>
+        <v>68905281.94543001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>74763546.90490001</v>
+        <v>80480442.58518</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>72533008.76498002</v>
+        <v>100647440.48584</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>106844854.96786</v>
+        <v>113879982.19067</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>154212560.57898</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>203154044.79925</v>
+        <v>203170096.93675</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>230453172.38829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>230590716.25012</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>268692184.987</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>33252771.68634</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>40218019.85426</v>
+        <v>40218019.85426001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>52579075.00714001</v>
+        <v>52579075.00714</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>52698085.87238</v>
+        <v>52708529.43526001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>57418071.38369</v>
+        <v>60354690.87883</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>66369272.42272999</v>
+        <v>71619281.90553001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>63314607.46562</v>
+        <v>89347520.65918002</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>94499197.00381</v>
+        <v>101177123.00696</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>135769223.31234</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>176913514.5981</v>
+        <v>176927262.14727</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>203737262.14914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>203857917.74684</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>230802263.946</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>28459661.15934001</v>
@@ -1346,37 +1302,42 @@
         <v>34156403.47003</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>44579838.81860999</v>
+        <v>44579838.81861001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>44675937.05066001</v>
+        <v>44686380.61354</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>48747128.27735999</v>
+        <v>50750765.5033</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>56578946.52878999</v>
+        <v>61023023.06618001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>53163476.51932</v>
+        <v>75624442.19879998</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>80542376.97920999</v>
+        <v>86475393.09610999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>118262298.49665</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>159439982.18909</v>
+        <v>159450651.89067</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>184429947.37558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>184453515.52394</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>207404581.828</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>4376497.01555</v>
@@ -1385,43 +1346,48 @@
         <v>5510446.029129999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7216353.745279999</v>
+        <v>7216353.74528</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>7162891.74984</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7863238.14888</v>
+        <v>8795338.99354</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>8587948.03318</v>
+        <v>9393880.97859</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>8883867.41354</v>
+        <v>11924683.46851</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>11947902.98398</v>
+        <v>12686114.6008</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>14985813.57393</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13975495.30725</v>
+        <v>13977756.46374</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>14741667.83191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14803286.20905</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>18820390.434</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>87906.1174</v>
+        <v>87906.11739999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>80817.28121000002</v>
+        <v>80817.28120999999</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>137512.73067</v>
@@ -1430,55 +1396,60 @@
         <v>155399.30226</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>183226.64643</v>
+        <v>183529.71775</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>295896.9478</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>476171.84474</v>
+        <v>476847.2438000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>382230.75216</v>
+        <v>388708.42104</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>564171.9251299999</v>
+        <v>564171.92513</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>715581.10898</v>
+        <v>716397.8000800001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>961641.4904199999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>996765.8571499998</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1174467.898</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>328707.39405</v>
+        <v>328707.3940499999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>470353.07389</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>645369.7125800002</v>
+        <v>645369.7125799999</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>703857.76962</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>624478.31102</v>
+        <v>625056.66424</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>906480.9129599998</v>
+        <v>906480.91296</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>791091.68802</v>
+        <v>1321547.74807</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1626686.28846</v>
+        <v>1626906.88901</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1956939.31663</v>
@@ -1487,52 +1458,62 @@
         <v>2782455.99278</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3604005.451230001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3604350.1567</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3402823.786</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>4284554.57246</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5137250.172949999</v>
+        <v>5137250.17295</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7595196.850159998</v>
+        <v>7595196.85016</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6784558.66288</v>
+        <v>6788364.116949999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8208531.072020001</v>
+        <v>8550591.0666</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8394274.482170001</v>
+        <v>8861160.679649999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9218401.299360001</v>
+        <v>11299919.82666</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12345657.96405</v>
+        <v>12702859.18371</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>18443337.26664</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>26240530.20115</v>
+        <v>26242834.78948</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>26715910.23915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26732798.50328</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>37889921.041</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2532143.498749999</v>
@@ -1544,34 +1525,39 @@
         <v>3506427.84371</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3876535.00377</v>
+        <v>3879639.40429</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4402992.553370001</v>
+        <v>4550854.88714</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4814446.583669999</v>
+        <v>5016146.80347</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4729811.283489999</v>
+        <v>5828347.32268</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6600289.9215</v>
+        <v>6892813.16058</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>8388748.81402</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10939509.40815</v>
+        <v>10944279.43912</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12625032.07839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12694981.62979</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14173928.959</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>239647.53927</v>
@@ -1583,34 +1569,39 @@
         <v>335978.44776</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>422550.28758</v>
+        <v>422550.2875800001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>531110.49833</v>
+        <v>531110.4983300001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>470613.6443599999</v>
+        <v>471143.6045599999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>345721.6425</v>
+        <v>381193.07978</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>477172.4634</v>
+        <v>496320.76028</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>726200.81022</v>
+        <v>726200.8102199999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>995026.4383000002</v>
+        <v>995199.2652900002</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1256181.81251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1256535.42759</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1198294.593</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1084067.24643</v>
@@ -1622,34 +1613,39 @@
         <v>1509433.76563</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1584306.23606</v>
+        <v>1584335.77838</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1685835.77304</v>
+        <v>1791805.60095</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1829894.76031</v>
+        <v>1993639.82923</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1719003.14987</v>
+        <v>2406984.4258</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2713357.41043</v>
+        <v>2783366.35103</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3544236.04729</v>
+        <v>3544236.047290001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4830474.139169999</v>
+        <v>4830887.955220001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5358274.75332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5359821.67962</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5743939.587</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1208428.71305</v>
@@ -1661,34 +1657,39 @@
         <v>1661015.63032</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1869678.48013</v>
+        <v>1872753.33833</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2186046.282</v>
+        <v>2227938.78786</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2513938.179</v>
+        <v>2551363.36968</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2665086.49112</v>
+        <v>3040169.8171</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3409760.04767</v>
+        <v>3613126.04927</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4118311.95651</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5114008.830680001</v>
+        <v>5118192.218610001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6010575.512560001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6078624.52258</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7231694.779</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1752411.07371</v>
@@ -1697,37 +1698,42 @@
         <v>2376516.80956</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4088769.006449999</v>
+        <v>4088769.00645</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2908023.659110001</v>
+        <v>2908724.71266</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3805538.51865</v>
+        <v>3999736.17946</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3579827.898500001</v>
+        <v>3845013.876179999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4488590.01587</v>
+        <v>5471572.50398</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5745368.04255</v>
+        <v>5810046.023130001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>10054588.45262</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>15301020.793</v>
+        <v>15298555.35036</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>14090878.16076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14037816.87349</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>23715992.082</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1448805.47861</v>
@@ -1739,34 +1745,39 @@
         <v>2934012.31678</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2493868.49431</v>
+        <v>2494243.85304</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4343569.32613</v>
+        <v>4424500.68938</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6350576.8286</v>
+        <v>6588896.86845</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10126295.07291</v>
+        <v>12014375.54277</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>10683732.67108</v>
+        <v>10937692.25846</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>20602842.99079</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>54993687.32616</v>
+        <v>55014055.52185</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15534583.84125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>15567810.12517</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>45599009.417</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>31450.45273</v>
@@ -1775,25 +1786,25 @@
         <v>29370.69482</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>68252.31915</v>
+        <v>68252.31915000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>57321.1287</v>
+        <v>57321.12869999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>60193.21296</v>
+        <v>60193.21295999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>57796.54054</v>
+        <v>57796.54053999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>40212.91896</v>
+        <v>41441.91547</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>52743.0526</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>78239.27795999998</v>
+        <v>78239.27795999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>139390.23376</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>110889.21477</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>89675.834</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>450.6412</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5860.671729999999</v>
+        <v>5860.67173</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>9570.651029999997</v>
@@ -1826,7 +1842,7 @@
         <v>89445.26577</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>79032.91403999999</v>
+        <v>80066.55585</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>112666.87375</v>
@@ -1838,52 +1854,62 @@
         <v>51899.57485</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>74717.36227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>75103.37727000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>116512.692</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>155889.38608</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>154725.87492</v>
+        <v>154725.8749199999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>230599.22478</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>232076.50562</v>
+        <v>232174.40407</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>190639.62286</v>
+        <v>195820.65158</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>223787.14171</v>
+        <v>228405.03039</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>253966.5549</v>
+        <v>284482.38568</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>316310.47185</v>
+        <v>333708.36346</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>467415.33675</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>743282.8748800001</v>
+        <v>744659.5171600002</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>895356.6210399999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>910003.6140899999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1264495.024</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>19077.26284</v>
@@ -1901,10 +1927,10 @@
         <v>10672.82322</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7680.867350000001</v>
+        <v>7680.86735</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2424.65475</v>
+        <v>7967.925200000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>8781.727629999999</v>
@@ -1913,16 +1939,21 @@
         <v>17851.23184</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>9317.282239999999</v>
+        <v>9408.682239999998</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7747.0687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7729.77922</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>55701.355</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>85594.40805</v>
@@ -1940,13 +1971,13 @@
         <v>53481.60412</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>36552.94642</v>
+        <v>39778.30766</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44940.79368</v>
+        <v>45041.18181</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>84651.38903999999</v>
+        <v>85085.92805</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>59304.03034</v>
@@ -1955,19 +1986,24 @@
         <v>49257.39973</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>258341.53392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>258386.27892</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>60315.664</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2640.928580000001</v>
+        <v>2640.92858</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>976.0913999999999</v>
+        <v>976.0914</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1337.94343</v>
@@ -1976,34 +2012,39 @@
         <v>1518.2849</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>87946.13294000001</v>
+        <v>87946.13294</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>35836.57472</v>
+        <v>35840.15661000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5734.988359999999</v>
+        <v>5757.86373</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>176256.56825</v>
+        <v>176288.65036</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9979.127429999999</v>
+        <v>9979.12743</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>3384.48744</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>185183.02833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>185194.094</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>59816.73</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>915630.65854</v>
+        <v>915630.6585400001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>994056.0097000001</v>
@@ -2012,34 +2053,39 @@
         <v>2196132.96516</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1730214.05184</v>
+        <v>1730457.2745</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3490745.38005</v>
+        <v>3560334.84298</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5200239.184219999</v>
+        <v>5429246.69723</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9102737.270859998</v>
+        <v>10820779.42618</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9171715.706180001</v>
+        <v>9256634.40057</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>18923910.01233</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>52410157.76852</v>
+        <v>52427663.2036</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>12257633.31258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12273686.12628</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>41990140.073</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>8913.144649999998</v>
@@ -2054,10 +2100,10 @@
         <v>14806.56261</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>7785.221830000001</v>
+        <v>7785.22183</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>11667.5303</v>
+        <v>11848.17492</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>16253.02118</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>23199.22714</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14566.99</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>17.68094</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>229140.915</v>
@@ -2129,34 +2185,39 @@
         <v>252033.43694</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>348147.16467</v>
+        <v>348181.40229</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>439169.46208</v>
+        <v>445330.33368</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>680653.93047</v>
+        <v>681938.98088</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>580991.3912500001</v>
+        <v>712584.70274</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>751265.7262700001</v>
+        <v>902442.1065300002</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>997086.8988600002</v>
+        <v>997086.89886</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1571999.32365</v>
+        <v>1573394.04198</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1721516.4725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1723618.41348</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1947751.655</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1018471.7226</v>
@@ -2168,40 +2229,45 @@
         <v>2458540.074020001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1705069.9074</v>
+        <v>1705294.21208</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4070169.20013</v>
+        <v>4113953.3472</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5348403.83459</v>
+        <v>5508346.98929</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10163770.95563</v>
+        <v>12460419.54171</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10222554.11572</v>
+        <v>10380418.65886</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>19813095.6908</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>54368754.74263999</v>
+        <v>54380236.92498</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>13606037.99083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>13616400.70805</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>42581792.266</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3977.4025</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2935.783310000001</v>
+        <v>2935.78331</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>3229.4407</v>
@@ -2210,31 +2276,36 @@
         <v>5114.06236</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9156.16627</v>
+        <v>9156.166270000002</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>18230.97215</v>
+        <v>18231.89511</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>13145.42373</v>
+        <v>13324.19734</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>18354.54577</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>44215.71482000001</v>
+        <v>44215.71481999999</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>46401.25565</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>52857.18840000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>52912.21096</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>60860.593</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>115453.95372</v>
@@ -2267,16 +2338,21 @@
         <v>374838.46862</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>463748.8551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>463760.1831</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>344741.555</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>869.74483</v>
+        <v>869.7448300000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>41.71739</v>
@@ -2294,10 +2370,10 @@
         <v>249231.0218</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>203.35265</v>
+        <v>203.35519</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>83.41993000000001</v>
+        <v>83.58223000000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>3792.77984</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1568434.93901</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5404.452</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>799770.97187</v>
@@ -2324,34 +2405,39 @@
         <v>2190365.40026</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1419416.06605</v>
+        <v>1419610.35873</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3662470.27293</v>
+        <v>3706037.34583</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4747469.867119999</v>
+        <v>4906945.537389999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8911630.04751</v>
+        <v>11195738.34877</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9873897.387430001</v>
+        <v>9952539.20301</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>19377867.6224</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>51921422.48192</v>
+        <v>51932865.17457999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10912433.65007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10922870.2906</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>41477732.736</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>5390.518800000001</v>
@@ -2369,7 +2455,7 @@
         <v>12511.93547</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10334.26296</v>
+        <v>10386.78961</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>15515.29819</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>7757.857550000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>9537.118</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3382.26415</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>3.24928</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>89626.86673000002</v>
+        <v>89626.86673000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>89034.66386999999</v>
@@ -2441,34 +2537,39 @@
         <v>110418.7914</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>119295.30396</v>
+        <v>119325.31596</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>225709.38476</v>
+        <v>225926.45893</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>219345.64609</v>
+        <v>219759.68091</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1055152.21726</v>
+        <v>1067513.72593</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>94183.45325000001</v>
+        <v>173406.01851</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>247080.68976</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>446915.5048</v>
+        <v>446954.9944800001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>600802.2514200001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>600661.97755</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>683515.812</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>686988.47301</v>
@@ -2477,76 +2578,86 @@
         <v>430982.69673</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>925231.29935</v>
+        <v>925231.2993499999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>787609.30424</v>
+        <v>787769.8111399999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1039208.30715</v>
+        <v>1243102.89189</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>948088.1482100001</v>
+        <v>1057895.11649</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1357561.53556</v>
+        <v>1551387.86239</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1615899.24676</v>
+        <v>1647967.96455</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2433498.2474</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5854423.245180001</v>
+        <v>5854836.165350001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3743559.95263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3745966.47303</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6780328.234</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>594459.21985</v>
+        <v>594459.2198499999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>399152.05188</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>775158.4500699999</v>
+        <v>775158.45007</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>680749.23205</v>
+        <v>680909.7389499999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>904367.6115200002</v>
+        <v>1028577.63112</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>787141.6166699999</v>
+        <v>885816.35937</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1148401.13963</v>
+        <v>1212833.82453</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1204906.33566</v>
+        <v>1236817.24353</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1968301.45727</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4880195.004430001</v>
+        <v>4880607.9246</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3097902.47807</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3100308.99847</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5363513.538</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>92529.25315999999</v>
@@ -2561,16 +2672,16 @@
         <v>106860.07219</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>134840.69563</v>
+        <v>214525.26077</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>160946.53154</v>
+        <v>172078.75712</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>209160.39593</v>
+        <v>338554.03786</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>410992.9111</v>
+        <v>411150.72102</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>465196.79013</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>645657.4745599999</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1416814.696</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1495756.35671</v>
@@ -2597,34 +2713,39 @@
         <v>3639009.94986</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2909212.94178</v>
+        <v>2909904.54248</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3039730.3375</v>
+        <v>3067180.62975</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3633912.744300001</v>
+        <v>3867668.63885</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3093552.59759</v>
+        <v>3474140.64265</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4590647.35115</v>
+        <v>4719351.65818</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>8410837.505209999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10071530.13134</v>
+        <v>10077537.78188</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12275864.05855</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12243259.81758</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19952880.999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>158705.56071</v>
@@ -2639,31 +2760,36 @@
         <v>225597.22021</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>561299.1842299999</v>
+        <v>567275.1485900001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1018677.38395</v>
+        <v>1032396.35319</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>330495.01869</v>
+        <v>378965.44554</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>455332.63147</v>
+        <v>463667.62216</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>619001.5383499999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>620399.73558</v>
+        <v>632674.28787</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>828304.9427200001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>829391.6236</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>813428.585</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>14019.92654</v>
@@ -2678,16 +2804,16 @@
         <v>11225.22861</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>10430.99931</v>
+        <v>10452.02982</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>43473.54047</v>
+        <v>43474.63279000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>24144.27397</v>
+        <v>27953.10285</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>13737.83171</v>
+        <v>13826.61477</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>146331.66493</v>
@@ -2696,13 +2822,18 @@
         <v>10383.15799</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>18901.82676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18907.45752</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>47347.425</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>144685.63417</v>
@@ -2717,31 +2848,36 @@
         <v>214371.9916</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>550868.1849199999</v>
+        <v>556823.1187699999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>975203.84348</v>
+        <v>988921.7203999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>306350.74472</v>
+        <v>351012.3426900001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>441594.79976</v>
+        <v>449841.00739</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>472669.8734200001</v>
+        <v>472669.87342</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>610016.5775899999</v>
+        <v>622291.12988</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>809403.1159600001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>810484.16608</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>766081.16</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>494622.57026</v>
@@ -2753,43 +2889,48 @@
         <v>509546.44845</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>437369.8787200001</v>
+        <v>437432.5756900001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>413356.91933</v>
+        <v>422227.2784600001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>726628.4669100001</v>
+        <v>736247.28674</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>313427.10099</v>
+        <v>376708.98673</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>814874.6928199999</v>
+        <v>826859.90685</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>966853.4763300002</v>
+        <v>966853.47633</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1158098.53899</v>
+        <v>1162470.38027</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1512930.8074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1514130.63593</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2218054.201</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>363072.06577</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>46648.48601</v>
+        <v>46648.48601000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>58343.01298</v>
+        <v>58343.01297999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>301288.50388</v>
@@ -2801,25 +2942,30 @@
         <v>130647.64985</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>114503.31037</v>
+        <v>162001.97148</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>372501.6915</v>
+        <v>376183.3544199999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>535504.73483</v>
+        <v>535504.7348300001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>388054.4712599999</v>
+        <v>388075.54857</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>986975.11255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>985683.7644</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1390109.03</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>28996.30912</v>
@@ -2834,31 +2980,36 @@
         <v>20615.83604</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>16679.86497</v>
+        <v>22012.83125</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>80613.48979000002</v>
+        <v>81572.68631000002</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>32862.81908</v>
+        <v>40036.41643</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>43133.23911000001</v>
+        <v>45614.34404999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>36655.92113999999</v>
+        <v>36655.92114000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>40935.76813000001</v>
+        <v>40935.98323000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>87025.6906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>88190.99033999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>77983.743</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>102554.19537</v>
@@ -2870,73 +3021,83 @@
         <v>424061.39918</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>115465.5388</v>
+        <v>115528.23577</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>213193.11978</v>
+        <v>216730.51263</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>515367.32727</v>
+        <v>524026.9505799999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>166060.97154</v>
+        <v>174670.59882</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>399239.76221</v>
+        <v>405062.20838</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>394692.82036</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>729108.2995999999</v>
+        <v>733458.8484699999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>438930.0042500001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>440255.88119</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>749961.428</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1159839.34716</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2368086.792469999</v>
+        <v>2368086.792470001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3323390.737019999</v>
+        <v>3323390.73702</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2697440.28327</v>
+        <v>2698069.187</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3187672.6024</v>
+        <v>3212228.49988</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3925961.66134</v>
+        <v>4163817.7053</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3110620.51529</v>
+        <v>3476397.10146</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4231105.2898</v>
+        <v>4356159.37349</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8062985.56723</v>
+        <v>8062985.567229999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9533831.327929998</v>
+        <v>9547741.689480001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11591238.19387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11558520.80525</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18548255.383</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>220506.52652</v>
@@ -2945,37 +3106,42 @@
         <v>418995.73336</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>582794.89579</v>
+        <v>582794.8957900001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>413564.95191</v>
+        <v>413657.6782499999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>537027.21465</v>
+        <v>537618.97541</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>420280.6405</v>
+        <v>427911.1916799999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>447997.70612</v>
+        <v>465570.83851</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>510166.4939</v>
+        <v>520366.61235</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>619779.28927</v>
+        <v>619779.2892700001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>699427.6306899999</v>
+        <v>701389.38871</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>878479.3775200001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>881714.0835600001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1328295</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>939332.8206399999</v>
@@ -2984,34 +3150,37 @@
         <v>1949091.05911</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2740595.84123</v>
+        <v>2740595.841229999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2283875.331360001</v>
+        <v>2284411.50875</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2650645.38775</v>
+        <v>2674609.52447</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3505681.02084</v>
+        <v>3735906.51362</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2662622.80917</v>
+        <v>3010826.26295</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3720938.7959</v>
+        <v>3835792.761140001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>7443206.277959999</v>
+        <v>7443206.27796</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>8834403.697240001</v>
+        <v>8846352.300770001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>10712758.81635</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10676806.72169</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>17219960.383</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2596</v>
@@ -3041,31 +3213,34 @@
         <v>2638</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2544</v>
+        <v>2555</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2580</v>
+        <v>2613</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2584</v>
+        <v>2615</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2669</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2598</v>
+        <v>2819</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2951</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>